--- a/src/ExcelFiles/DataDrivenTestData.xlsx
+++ b/src/ExcelFiles/DataDrivenTestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="4890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Driven" sheetId="2" r:id="rId1"/>
     <sheet name="Data Set" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:Q14"/>
+  <oleSize ref="A1:M9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -600,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
